--- a/Code/Results/Cases/Case_2_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9833820699716952</v>
+        <v>1.019597685490375</v>
       </c>
       <c r="D2">
-        <v>1.004452097373751</v>
+        <v>1.024733527851257</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9925747168569543</v>
+        <v>1.030629225673865</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036332027017861</v>
+        <v>1.028830943338726</v>
       </c>
       <c r="J2">
-        <v>1.006071441353888</v>
+        <v>1.02479954828536</v>
       </c>
       <c r="K2">
-        <v>1.015849753923423</v>
+        <v>1.02756116299202</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.004138476220521</v>
+        <v>1.033439683782387</v>
       </c>
       <c r="N2">
-        <v>1.00577700162541</v>
+        <v>1.012300903115731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9888714924404738</v>
+        <v>1.020714901171515</v>
       </c>
       <c r="D3">
-        <v>1.00829148950056</v>
+        <v>1.025527507425509</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9986012126929965</v>
+        <v>1.031925499853288</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037658220698906</v>
+        <v>1.029029899356856</v>
       </c>
       <c r="J3">
-        <v>1.009670198711738</v>
+        <v>1.025552711462865</v>
       </c>
       <c r="K3">
-        <v>1.018819367143343</v>
+        <v>1.028162332178411</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.009252022606757</v>
+        <v>1.034543043100339</v>
       </c>
       <c r="N3">
-        <v>1.007004502449192</v>
+        <v>1.012554411321746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9923345695332508</v>
+        <v>1.021437401891201</v>
       </c>
       <c r="D4">
-        <v>1.010716189001526</v>
+        <v>1.026040778061286</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.00240607555946</v>
+        <v>1.032764067111685</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038483207337638</v>
+        <v>1.029157079568751</v>
       </c>
       <c r="J4">
-        <v>1.011936411320131</v>
+        <v>1.026039144722261</v>
       </c>
       <c r="K4">
-        <v>1.020686976931429</v>
+        <v>1.028550192291059</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.012475547852853</v>
+        <v>1.035256242790788</v>
       </c>
       <c r="N4">
-        <v>1.007777009431843</v>
+        <v>1.012718022256808</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9937700926088276</v>
+        <v>1.021741044002686</v>
       </c>
       <c r="D5">
-        <v>1.011721814105496</v>
+        <v>1.026256440608719</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.003984005261617</v>
+        <v>1.033116553126514</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038822336054795</v>
+        <v>1.029210173364455</v>
       </c>
       <c r="J5">
-        <v>1.012874778769966</v>
+        <v>1.026243423322011</v>
       </c>
       <c r="K5">
-        <v>1.021459691018382</v>
+        <v>1.02871297700514</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.01381118382728</v>
+        <v>1.035555894903301</v>
       </c>
       <c r="N5">
-        <v>1.008096758865658</v>
+        <v>1.012786702538153</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9940099558231535</v>
+        <v>1.021792021195527</v>
       </c>
       <c r="D6">
-        <v>1.011889874153884</v>
+        <v>1.026292644478228</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.004247706695641</v>
+        <v>1.033175734352224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038878832675</v>
+        <v>1.02921906619114</v>
       </c>
       <c r="J6">
-        <v>1.013031510013473</v>
+        <v>1.026277709840511</v>
       </c>
       <c r="K6">
-        <v>1.021588717688398</v>
+        <v>1.028740293355596</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.014034322078514</v>
+        <v>1.035606197486032</v>
       </c>
       <c r="N6">
-        <v>1.008150157807723</v>
+        <v>1.012798228298006</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9923538298445121</v>
+        <v>1.021441459551891</v>
       </c>
       <c r="D7">
-        <v>1.010729679402224</v>
+        <v>1.026043660212024</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.002427243626695</v>
+        <v>1.032768777231438</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038487768724045</v>
+        <v>1.029157790475195</v>
       </c>
       <c r="J7">
-        <v>1.011949005450512</v>
+        <v>1.026041875158292</v>
       </c>
       <c r="K7">
-        <v>1.020697350198003</v>
+        <v>1.028552368495376</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.012493470316602</v>
+        <v>1.035260247450217</v>
       </c>
       <c r="N7">
-        <v>1.007781301381416</v>
+        <v>1.012718940365688</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.98525624850025</v>
+        <v>1.019975340124612</v>
       </c>
       <c r="D8">
-        <v>1.00576233650312</v>
+        <v>1.025001957986375</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9946316479734951</v>
+        <v>1.031067352242587</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03678723404652</v>
+        <v>1.028898504057947</v>
       </c>
       <c r="J8">
-        <v>1.00730095508059</v>
+        <v>1.025054272970672</v>
       </c>
       <c r="K8">
-        <v>1.01686481495124</v>
+        <v>1.027764566515293</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.005884831412947</v>
+        <v>1.033812725183149</v>
       </c>
       <c r="N8">
-        <v>1.006196472438432</v>
+        <v>1.012386665684877</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.972022513091907</v>
+        <v>1.017388620050774</v>
       </c>
       <c r="D9">
-        <v>0.9965252767993261</v>
+        <v>1.023162603228984</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9801194115175837</v>
+        <v>1.028067519987127</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033525099924352</v>
+        <v>1.028429672200316</v>
       </c>
       <c r="J9">
-        <v>0.9986034404495004</v>
+        <v>1.023306957869803</v>
       </c>
       <c r="K9">
-        <v>1.009674981653977</v>
+        <v>1.026367634904891</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9935434886296755</v>
+        <v>1.031256193543481</v>
       </c>
       <c r="N9">
-        <v>1.003227421973604</v>
+        <v>1.011797885236232</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9626414837736721</v>
+        <v>1.015661866403524</v>
       </c>
       <c r="D10">
-        <v>0.9900004497950694</v>
+        <v>1.021933832517461</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9698463534220655</v>
+        <v>1.026066337092497</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031153914509677</v>
+        <v>1.028109082132823</v>
       </c>
       <c r="J10">
-        <v>0.9924199401444027</v>
+        <v>1.022137298866519</v>
       </c>
       <c r="K10">
-        <v>1.004552627216485</v>
+        <v>1.025430452318782</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9847822539164989</v>
+        <v>1.029547807009821</v>
       </c>
       <c r="N10">
-        <v>1.001114708587125</v>
+        <v>1.011403153188887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.958429349801301</v>
+        <v>1.014913600269527</v>
       </c>
       <c r="D11">
-        <v>0.9870777636435278</v>
+        <v>1.021401155151256</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9652367337961395</v>
+        <v>1.025199461761368</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030076081773762</v>
+        <v>1.027968354435401</v>
       </c>
       <c r="J11">
-        <v>0.9896399458908712</v>
+        <v>1.021629676711034</v>
       </c>
       <c r="K11">
-        <v>1.002247559415685</v>
+        <v>1.025023236407134</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9808454242649061</v>
+        <v>1.028807072006167</v>
       </c>
       <c r="N11">
-        <v>1.000164544324122</v>
+        <v>1.01123170200271</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9568405551755078</v>
+        <v>1.014635573085454</v>
       </c>
       <c r="D12">
-        <v>0.9859765329091085</v>
+        <v>1.021203202641682</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9634984328116436</v>
+        <v>1.024877410065687</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029667623280701</v>
+        <v>1.027915794632692</v>
       </c>
       <c r="J12">
-        <v>0.9885908764950286</v>
+        <v>1.021440948967856</v>
       </c>
       <c r="K12">
-        <v>1.001377423968691</v>
+        <v>1.024871765770852</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9793600275605946</v>
+        <v>1.028531778401536</v>
       </c>
       <c r="N12">
-        <v>0.9998059483480886</v>
+        <v>1.011167937511177</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9571824817181217</v>
+        <v>1.014695214868767</v>
       </c>
       <c r="D13">
-        <v>0.9862134740679818</v>
+        <v>1.021245668317873</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9638725162869741</v>
+        <v>1.024946493812384</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029755613029533</v>
+        <v>1.02792708189324</v>
       </c>
       <c r="J13">
-        <v>0.9888166682070609</v>
+        <v>1.021481439614735</v>
       </c>
       <c r="K13">
-        <v>1.001564715955636</v>
+        <v>1.024904266365068</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9796797217719229</v>
+        <v>1.028590836717492</v>
       </c>
       <c r="N13">
-        <v>0.9998831306883628</v>
+        <v>1.0111816188313</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9582985238924089</v>
+        <v>1.014890620259707</v>
       </c>
       <c r="D14">
-        <v>0.9869870601266036</v>
+        <v>1.021384794223534</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9650935887225462</v>
+        <v>1.025172842019509</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030042486393475</v>
+        <v>1.027964015687688</v>
       </c>
       <c r="J14">
-        <v>0.989553571659216</v>
+        <v>1.021614079978899</v>
       </c>
       <c r="K14">
-        <v>1.002175923149475</v>
+        <v>1.025010720136579</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9807231214638462</v>
+        <v>1.028784319259199</v>
       </c>
       <c r="N14">
-        <v>1.000135020346306</v>
+        <v>1.011226432841484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9589828920313703</v>
+        <v>1.015011004268752</v>
       </c>
       <c r="D15">
-        <v>0.9874615918996846</v>
+        <v>1.021470502023064</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9658424170997886</v>
+        <v>1.02531229516207</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030218151273445</v>
+        <v>1.027986733742282</v>
       </c>
       <c r="J15">
-        <v>0.9900053882852602</v>
+        <v>1.021695780956546</v>
       </c>
       <c r="K15">
-        <v>1.002550635246624</v>
+        <v>1.025076281636341</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9813628859551564</v>
+        <v>1.028903510068185</v>
       </c>
       <c r="N15">
-        <v>1.000289456393344</v>
+        <v>1.011254033636759</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9629177281161911</v>
+        <v>1.015711514163188</v>
       </c>
       <c r="D16">
-        <v>0.9901922851183497</v>
+        <v>1.021969171629501</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9701487264436455</v>
+        <v>1.026123861122484</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031224334706358</v>
+        <v>1.0281183814977</v>
       </c>
       <c r="J16">
-        <v>0.992602191833012</v>
+        <v>1.022170963703067</v>
       </c>
       <c r="K16">
-        <v>1.004703702001505</v>
+        <v>1.025457448135599</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9850403812614617</v>
+        <v>1.029596946026962</v>
       </c>
       <c r="N16">
-        <v>1.00117699386576</v>
+        <v>1.011414520654054</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9653446349707721</v>
+        <v>1.016150771299191</v>
       </c>
       <c r="D17">
-        <v>0.9918784369423164</v>
+        <v>1.022281809793674</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.97280552411722</v>
+        <v>1.026632839189161</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031841518921661</v>
+        <v>1.028200449061402</v>
       </c>
       <c r="J17">
-        <v>0.9942029422542982</v>
+        <v>1.022468724005818</v>
       </c>
       <c r="K17">
-        <v>1.006030381023173</v>
+        <v>1.025696165890567</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9873077857595588</v>
+        <v>1.030031652602784</v>
       </c>
       <c r="N17">
-        <v>1.001724021449164</v>
+        <v>1.01151504790507</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9667458488332881</v>
+        <v>1.016406927661938</v>
       </c>
       <c r="D18">
-        <v>0.9928526149098983</v>
+        <v>1.022464107377607</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9743397585677377</v>
+        <v>1.026929683924532</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032196613189171</v>
+        <v>1.028248133407969</v>
       </c>
       <c r="J18">
-        <v>0.9951268199540072</v>
+        <v>1.022642291472793</v>
       </c>
       <c r="K18">
-        <v>1.006795872678139</v>
+        <v>1.025835269955114</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.988616626200033</v>
+        <v>1.030285114017121</v>
       </c>
       <c r="N18">
-        <v>1.002039708612688</v>
+        <v>1.011573632672279</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9672212389857846</v>
+        <v>1.016494261115729</v>
       </c>
       <c r="D19">
-        <v>0.9931832309319681</v>
+        <v>1.022526256157089</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9748603286736947</v>
+        <v>1.027030894707727</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03231687253366</v>
+        <v>1.02826436129079</v>
       </c>
       <c r="J19">
-        <v>0.9954402043601965</v>
+        <v>1.022701454688469</v>
       </c>
       <c r="K19">
-        <v>1.00705549585668</v>
+        <v>1.025882677806699</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9890606288256004</v>
+        <v>1.03037152167539</v>
       </c>
       <c r="N19">
-        <v>1.002146785812081</v>
+        <v>1.011593599909976</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9650857476960658</v>
+        <v>1.016103648858498</v>
       </c>
       <c r="D20">
-        <v>0.9916985002318398</v>
+        <v>1.022248272780483</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9725220836980335</v>
+        <v>1.026578234152237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031775810561988</v>
+        <v>1.028191663051007</v>
       </c>
       <c r="J20">
-        <v>0.9940322191901236</v>
+        <v>1.022436788641168</v>
       </c>
       <c r="K20">
-        <v>1.005888909227509</v>
+        <v>1.025670567803059</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.987065942474343</v>
+        <v>1.029985022605253</v>
       </c>
       <c r="N20">
-        <v>1.001665683107066</v>
+        <v>1.011504267567844</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9579705601571754</v>
+        <v>1.014833080683969</v>
       </c>
       <c r="D21">
-        <v>0.986759697730678</v>
+        <v>1.021343827667533</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9647347491131631</v>
+        <v>1.025106189673291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029958236673072</v>
+        <v>1.02795314753827</v>
       </c>
       <c r="J21">
-        <v>0.9893370352272928</v>
+        <v>1.021575025517961</v>
       </c>
       <c r="K21">
-        <v>1.001996329676799</v>
+        <v>1.024979378026516</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9804165169056479</v>
+        <v>1.02872734767973</v>
       </c>
       <c r="N21">
-        <v>1.000061004441681</v>
+        <v>1.011213238440307</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9533558728219159</v>
+        <v>1.014033714853706</v>
       </c>
       <c r="D22">
-        <v>0.9835635750617692</v>
+        <v>1.020774632148781</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9596865786144985</v>
+        <v>1.024180333692351</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028768328724713</v>
+        <v>1.027801521161658</v>
       </c>
       <c r="J22">
-        <v>0.9862891768477188</v>
+        <v>1.021032191958409</v>
       </c>
       <c r="K22">
-        <v>0.9994678273366525</v>
+        <v>1.024543569665774</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.976101308946234</v>
+        <v>1.027935718906129</v>
       </c>
       <c r="N22">
-        <v>0.9990191161461607</v>
+        <v>1.011029794513764</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9558161823534256</v>
+        <v>1.014457522783219</v>
       </c>
       <c r="D23">
-        <v>0.9852668701563218</v>
+        <v>1.021076424356094</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9623777806921081</v>
+        <v>1.024671179114496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029403742442206</v>
+        <v>1.027882058832386</v>
       </c>
       <c r="J23">
-        <v>0.9879143667275967</v>
+        <v>1.021320054327127</v>
       </c>
       <c r="K23">
-        <v>1.000816226793623</v>
+        <v>1.024774716750804</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9784021951826024</v>
+        <v>1.028355460436384</v>
       </c>
       <c r="N23">
-        <v>0.9995746923593031</v>
+        <v>1.011127085544578</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9652027719644434</v>
+        <v>1.016124941630124</v>
       </c>
       <c r="D24">
-        <v>0.9917798346333635</v>
+        <v>1.022263426895115</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9726502057718064</v>
+        <v>1.026602907920895</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031805516448604</v>
+        <v>1.028195633640167</v>
       </c>
       <c r="J24">
-        <v>0.994109391840985</v>
+        <v>1.022451219200665</v>
       </c>
       <c r="K24">
-        <v>1.005952859945707</v>
+        <v>1.025682134896784</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9871752632601005</v>
+        <v>1.030006092988612</v>
       </c>
       <c r="N24">
-        <v>1.001692054126648</v>
+        <v>1.011509138895914</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.975536701716368</v>
+        <v>1.018057742446715</v>
       </c>
       <c r="D25">
-        <v>0.9989746760714784</v>
+        <v>1.023638565833172</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9839705580012045</v>
+        <v>1.028843265777851</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03440165560223</v>
+        <v>1.028552292012887</v>
       </c>
       <c r="J25">
-        <v>1.000916363040167</v>
+        <v>1.023759519693215</v>
       </c>
       <c r="K25">
-        <v>1.011588929752816</v>
+        <v>1.026729812033044</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9968229138049963</v>
+        <v>1.031917819807296</v>
       </c>
       <c r="N25">
-        <v>1.004017335007683</v>
+        <v>1.011950487952215</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019597685490375</v>
+        <v>0.9833820699716957</v>
       </c>
       <c r="D2">
-        <v>1.024733527851257</v>
+        <v>1.004452097373752</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.030629225673865</v>
+        <v>0.9925747168569549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028830943338726</v>
+        <v>1.036332027017861</v>
       </c>
       <c r="J2">
-        <v>1.02479954828536</v>
+        <v>1.006071441353889</v>
       </c>
       <c r="K2">
-        <v>1.02756116299202</v>
+        <v>1.015849753923424</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.033439683782387</v>
+        <v>1.004138476220521</v>
       </c>
       <c r="N2">
-        <v>1.012300903115731</v>
+        <v>1.00577700162541</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020714901171515</v>
+        <v>0.9888714924404746</v>
       </c>
       <c r="D3">
-        <v>1.025527507425509</v>
+        <v>1.00829148950056</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.031925499853288</v>
+        <v>0.998601212692997</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029029899356856</v>
+        <v>1.037658220698906</v>
       </c>
       <c r="J3">
-        <v>1.025552711462865</v>
+        <v>1.009670198711738</v>
       </c>
       <c r="K3">
-        <v>1.028162332178411</v>
+        <v>1.018819367143343</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.034543043100339</v>
+        <v>1.009252022606757</v>
       </c>
       <c r="N3">
-        <v>1.012554411321746</v>
+        <v>1.007004502449193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021437401891201</v>
+        <v>0.9923345695332499</v>
       </c>
       <c r="D4">
-        <v>1.026040778061286</v>
+        <v>1.010716189001525</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.032764067111685</v>
+        <v>1.00240607555946</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029157079568751</v>
+        <v>1.038483207337637</v>
       </c>
       <c r="J4">
-        <v>1.026039144722261</v>
+        <v>1.01193641132013</v>
       </c>
       <c r="K4">
-        <v>1.028550192291059</v>
+        <v>1.020686976931429</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.035256242790788</v>
+        <v>1.012475547852852</v>
       </c>
       <c r="N4">
-        <v>1.012718022256808</v>
+        <v>1.007777009431843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021741044002686</v>
+        <v>0.9937700926088278</v>
       </c>
       <c r="D5">
-        <v>1.026256440608719</v>
+        <v>1.011721814105496</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.033116553126514</v>
+        <v>1.003984005261618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029210173364455</v>
+        <v>1.038822336054795</v>
       </c>
       <c r="J5">
-        <v>1.026243423322011</v>
+        <v>1.012874778769967</v>
       </c>
       <c r="K5">
-        <v>1.02871297700514</v>
+        <v>1.021459691018382</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.035555894903301</v>
+        <v>1.01381118382728</v>
       </c>
       <c r="N5">
-        <v>1.012786702538153</v>
+        <v>1.008096758865658</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021792021195527</v>
+        <v>0.994009955823153</v>
       </c>
       <c r="D6">
-        <v>1.026292644478228</v>
+        <v>1.011889874153884</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.033175734352224</v>
+        <v>1.004247706695641</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02921906619114</v>
+        <v>1.038878832675</v>
       </c>
       <c r="J6">
-        <v>1.026277709840511</v>
+        <v>1.013031510013473</v>
       </c>
       <c r="K6">
-        <v>1.028740293355596</v>
+        <v>1.021588717688398</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.035606197486032</v>
+        <v>1.014034322078514</v>
       </c>
       <c r="N6">
-        <v>1.012798228298006</v>
+        <v>1.008150157807722</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021441459551891</v>
+        <v>0.9923538298445123</v>
       </c>
       <c r="D7">
-        <v>1.026043660212024</v>
+        <v>1.010729679402224</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.032768777231438</v>
+        <v>1.002427243626695</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029157790475195</v>
+        <v>1.038487768724045</v>
       </c>
       <c r="J7">
-        <v>1.026041875158292</v>
+        <v>1.011949005450512</v>
       </c>
       <c r="K7">
-        <v>1.028552368495376</v>
+        <v>1.020697350198003</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.035260247450217</v>
+        <v>1.012493470316602</v>
       </c>
       <c r="N7">
-        <v>1.012718940365688</v>
+        <v>1.007781301381416</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019975340124612</v>
+        <v>0.985256248500249</v>
       </c>
       <c r="D8">
-        <v>1.025001957986375</v>
+        <v>1.005762336503119</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.031067352242587</v>
+        <v>0.9946316479734943</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028898504057947</v>
+        <v>1.03678723404652</v>
       </c>
       <c r="J8">
-        <v>1.025054272970672</v>
+        <v>1.00730095508059</v>
       </c>
       <c r="K8">
-        <v>1.027764566515293</v>
+        <v>1.01686481495124</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.033812725183149</v>
+        <v>1.005884831412946</v>
       </c>
       <c r="N8">
-        <v>1.012386665684877</v>
+        <v>1.006196472438432</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017388620050774</v>
+        <v>0.9720225130919081</v>
       </c>
       <c r="D9">
-        <v>1.023162603228984</v>
+        <v>0.9965252767993268</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.028067519987127</v>
+        <v>0.9801194115175844</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028429672200316</v>
+        <v>1.033525099924353</v>
       </c>
       <c r="J9">
-        <v>1.023306957869803</v>
+        <v>0.9986034404495012</v>
       </c>
       <c r="K9">
-        <v>1.026367634904891</v>
+        <v>1.009674981653978</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.031256193543481</v>
+        <v>0.9935434886296761</v>
       </c>
       <c r="N9">
-        <v>1.011797885236232</v>
+        <v>1.003227421973605</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015661866403524</v>
+        <v>0.9626414837736715</v>
       </c>
       <c r="D10">
-        <v>1.021933832517461</v>
+        <v>0.9900004497950693</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.026066337092497</v>
+        <v>0.9698463534220656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028109082132823</v>
+        <v>1.031153914509677</v>
       </c>
       <c r="J10">
-        <v>1.022137298866519</v>
+        <v>0.9924199401444023</v>
       </c>
       <c r="K10">
-        <v>1.025430452318782</v>
+        <v>1.004552627216485</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.029547807009821</v>
+        <v>0.9847822539164988</v>
       </c>
       <c r="N10">
-        <v>1.011403153188887</v>
+        <v>1.001114708587125</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014913600269527</v>
+        <v>0.9584293498013008</v>
       </c>
       <c r="D11">
-        <v>1.021401155151256</v>
+        <v>0.9870777636435278</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.025199461761368</v>
+        <v>0.9652367337961397</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027968354435401</v>
+        <v>1.030076081773762</v>
       </c>
       <c r="J11">
-        <v>1.021629676711034</v>
+        <v>0.9896399458908711</v>
       </c>
       <c r="K11">
-        <v>1.025023236407134</v>
+        <v>1.002247559415685</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.028807072006167</v>
+        <v>0.9808454242649064</v>
       </c>
       <c r="N11">
-        <v>1.01123170200271</v>
+        <v>1.000164544324122</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014635573085454</v>
+        <v>0.9568405551755079</v>
       </c>
       <c r="D12">
-        <v>1.021203202641682</v>
+        <v>0.9859765329091089</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.024877410065687</v>
+        <v>0.963498432811644</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027915794632692</v>
+        <v>1.029667623280701</v>
       </c>
       <c r="J12">
-        <v>1.021440948967856</v>
+        <v>0.988590876495029</v>
       </c>
       <c r="K12">
-        <v>1.024871765770852</v>
+        <v>1.001377423968691</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.028531778401536</v>
+        <v>0.9793600275605949</v>
       </c>
       <c r="N12">
-        <v>1.011167937511177</v>
+        <v>0.9998059483480887</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014695214868767</v>
+        <v>0.9571824817181217</v>
       </c>
       <c r="D13">
-        <v>1.021245668317873</v>
+        <v>0.9862134740679817</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.024946493812384</v>
+        <v>0.9638725162869741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02792708189324</v>
+        <v>1.029755613029533</v>
       </c>
       <c r="J13">
-        <v>1.021481439614735</v>
+        <v>0.9888166682070607</v>
       </c>
       <c r="K13">
-        <v>1.024904266365068</v>
+        <v>1.001564715955636</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.028590836717492</v>
+        <v>0.9796797217719231</v>
       </c>
       <c r="N13">
-        <v>1.0111816188313</v>
+        <v>0.9998831306883625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014890620259707</v>
+        <v>0.9582985238924088</v>
       </c>
       <c r="D14">
-        <v>1.021384794223534</v>
+        <v>0.9869870601266035</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.025172842019509</v>
+        <v>0.9650935887225459</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027964015687688</v>
+        <v>1.030042486393475</v>
       </c>
       <c r="J14">
-        <v>1.021614079978899</v>
+        <v>0.989553571659216</v>
       </c>
       <c r="K14">
-        <v>1.025010720136579</v>
+        <v>1.002175923149474</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.028784319259199</v>
+        <v>0.980723121463846</v>
       </c>
       <c r="N14">
-        <v>1.011226432841484</v>
+        <v>1.000135020346306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015011004268752</v>
+        <v>0.9589828920313705</v>
       </c>
       <c r="D15">
-        <v>1.021470502023064</v>
+        <v>0.987461591899685</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.02531229516207</v>
+        <v>0.9658424170997889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027986733742282</v>
+        <v>1.030218151273445</v>
       </c>
       <c r="J15">
-        <v>1.021695780956546</v>
+        <v>0.9900053882852604</v>
       </c>
       <c r="K15">
-        <v>1.025076281636341</v>
+        <v>1.002550635246624</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.028903510068185</v>
+        <v>0.9813628859551566</v>
       </c>
       <c r="N15">
-        <v>1.011254033636759</v>
+        <v>1.000289456393344</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015711514163188</v>
+        <v>0.9629177281161908</v>
       </c>
       <c r="D16">
-        <v>1.021969171629501</v>
+        <v>0.9901922851183494</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.026123861122484</v>
+        <v>0.9701487264436455</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0281183814977</v>
+        <v>1.031224334706358</v>
       </c>
       <c r="J16">
-        <v>1.022170963703067</v>
+        <v>0.9926021918330119</v>
       </c>
       <c r="K16">
-        <v>1.025457448135599</v>
+        <v>1.004703702001505</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.029596946026962</v>
+        <v>0.9850403812614614</v>
       </c>
       <c r="N16">
-        <v>1.011414520654054</v>
+        <v>1.00117699386576</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016150771299191</v>
+        <v>0.9653446349707718</v>
       </c>
       <c r="D17">
-        <v>1.022281809793674</v>
+        <v>0.9918784369423165</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.026632839189161</v>
+        <v>0.9728055241172197</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028200449061402</v>
+        <v>1.031841518921661</v>
       </c>
       <c r="J17">
-        <v>1.022468724005818</v>
+        <v>0.9942029422542982</v>
       </c>
       <c r="K17">
-        <v>1.025696165890567</v>
+        <v>1.006030381023173</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.030031652602784</v>
+        <v>0.9873077857595586</v>
       </c>
       <c r="N17">
-        <v>1.01151504790507</v>
+        <v>1.001724021449164</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016406927661938</v>
+        <v>0.9667458488332884</v>
       </c>
       <c r="D18">
-        <v>1.022464107377607</v>
+        <v>0.9928526149098988</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.026929683924532</v>
+        <v>0.9743397585677379</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028248133407969</v>
+        <v>1.032196613189171</v>
       </c>
       <c r="J18">
-        <v>1.022642291472793</v>
+        <v>0.9951268199540076</v>
       </c>
       <c r="K18">
-        <v>1.025835269955114</v>
+        <v>1.006795872678139</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.030285114017121</v>
+        <v>0.9886166262000332</v>
       </c>
       <c r="N18">
-        <v>1.011573632672279</v>
+        <v>1.002039708612688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016494261115729</v>
+        <v>0.9672212389857838</v>
       </c>
       <c r="D19">
-        <v>1.022526256157089</v>
+        <v>0.9931832309319675</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.027030894707727</v>
+        <v>0.9748603286736939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02826436129079</v>
+        <v>1.03231687253366</v>
       </c>
       <c r="J19">
-        <v>1.022701454688469</v>
+        <v>0.9954402043601958</v>
       </c>
       <c r="K19">
-        <v>1.025882677806699</v>
+        <v>1.007055495856679</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.03037152167539</v>
+        <v>0.9890606288255998</v>
       </c>
       <c r="N19">
-        <v>1.011593599909976</v>
+        <v>1.00214678581208</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016103648858498</v>
+        <v>0.9650857476960639</v>
       </c>
       <c r="D20">
-        <v>1.022248272780483</v>
+        <v>0.9916985002318381</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.026578234152237</v>
+        <v>0.9725220836980319</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028191663051007</v>
+        <v>1.031775810561987</v>
       </c>
       <c r="J20">
-        <v>1.022436788641168</v>
+        <v>0.9940322191901221</v>
       </c>
       <c r="K20">
-        <v>1.025670567803059</v>
+        <v>1.005888909227507</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.029985022605253</v>
+        <v>0.9870659424743419</v>
       </c>
       <c r="N20">
-        <v>1.011504267567844</v>
+        <v>1.001665683107065</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014833080683969</v>
+        <v>0.9579705601571741</v>
       </c>
       <c r="D21">
-        <v>1.021343827667533</v>
+        <v>0.9867596977306768</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.025106189673291</v>
+        <v>0.9647347491131619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02795314753827</v>
+        <v>1.029958236673071</v>
       </c>
       <c r="J21">
-        <v>1.021575025517961</v>
+        <v>0.9893370352272918</v>
       </c>
       <c r="K21">
-        <v>1.024979378026516</v>
+        <v>1.001996329676798</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.02872734767973</v>
+        <v>0.9804165169056469</v>
       </c>
       <c r="N21">
-        <v>1.011213238440307</v>
+        <v>1.00006100444168</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014033714853706</v>
+        <v>0.9533558728219167</v>
       </c>
       <c r="D22">
-        <v>1.020774632148781</v>
+        <v>0.9835635750617699</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.024180333692351</v>
+        <v>0.9596865786144996</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027801521161658</v>
+        <v>1.028768328724714</v>
       </c>
       <c r="J22">
-        <v>1.021032191958409</v>
+        <v>0.9862891768477193</v>
       </c>
       <c r="K22">
-        <v>1.024543569665774</v>
+        <v>0.9994678273366533</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.027935718906129</v>
+        <v>0.9761013089462349</v>
       </c>
       <c r="N22">
-        <v>1.011029794513764</v>
+        <v>0.9990191161461608</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014457522783219</v>
+        <v>0.9558161823534254</v>
       </c>
       <c r="D23">
-        <v>1.021076424356094</v>
+        <v>0.9852668701563216</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.024671179114496</v>
+        <v>0.9623777806921086</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027882058832386</v>
+        <v>1.029403742442206</v>
       </c>
       <c r="J23">
-        <v>1.021320054327127</v>
+        <v>0.9879143667275966</v>
       </c>
       <c r="K23">
-        <v>1.024774716750804</v>
+        <v>1.000816226793623</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.028355460436384</v>
+        <v>0.9784021951826027</v>
       </c>
       <c r="N23">
-        <v>1.011127085544578</v>
+        <v>0.9995746923593031</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016124941630124</v>
+        <v>0.9652027719644448</v>
       </c>
       <c r="D24">
-        <v>1.022263426895115</v>
+        <v>0.9917798346333649</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.026602907920895</v>
+        <v>0.9726502057718082</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028195633640167</v>
+        <v>1.031805516448604</v>
       </c>
       <c r="J24">
-        <v>1.022451219200665</v>
+        <v>0.9941093918409865</v>
       </c>
       <c r="K24">
-        <v>1.025682134896784</v>
+        <v>1.005952859945709</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.030006092988612</v>
+        <v>0.9871752632601021</v>
       </c>
       <c r="N24">
-        <v>1.011509138895914</v>
+        <v>1.001692054126649</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018057742446715</v>
+        <v>0.9755367017163671</v>
       </c>
       <c r="D25">
-        <v>1.023638565833172</v>
+        <v>0.9989746760714776</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.028843265777851</v>
+        <v>0.9839705580012035</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028552292012887</v>
+        <v>1.03440165560223</v>
       </c>
       <c r="J25">
-        <v>1.023759519693215</v>
+        <v>1.000916363040167</v>
       </c>
       <c r="K25">
-        <v>1.026729812033044</v>
+        <v>1.011588929752815</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.031917819807296</v>
+        <v>0.9968229138049954</v>
       </c>
       <c r="N25">
-        <v>1.011950487952215</v>
+        <v>1.004017335007683</v>
       </c>
     </row>
   </sheetData>
